--- a/02_CLanguage/002 C到汇编 程序入口 调用约定 数据类型(浮点数存储).xlsx
+++ b/02_CLanguage/002 C到汇编 程序入口 调用约定 数据类型(浮点数存储).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02_CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F8236-DAA4-4220-A249-F2C4960C1610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E271732-AFBA-4A1E-AA60-E2AC8C73A296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -301,6 +301,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>空类型(</t>
@@ -310,6 +311,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>void</t>
@@ -318,6 +320,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -383,6 +386,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>unsigned</t>
@@ -391,6 +395,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> char i = 0xFF;</t>
@@ -402,6 +407,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>unsigned</t>
@@ -410,6 +416,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> char j = 0x1;</t>
@@ -576,6 +583,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.01 = 1.0 * 2的2次方 右移动 注意：向右移动2个位  </t>
@@ -585,6 +593,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>指数为-2</t>
@@ -1610,6 +1619,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1617,12 +1627,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="57"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1630,6 +1642,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1637,11 +1650,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5578,8 +5593,8 @@
   </sheetPr>
   <dimension ref="B3:S187"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6319,7 +6334,7 @@
     </row>
     <row r="148" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C148" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" s="19">
         <v>10000010</v>
